--- a/ex_04/ex_04/Processor Information.xlsx
+++ b/ex_04/ex_04/Processor Information.xlsx
@@ -621,11 +621,11 @@
         <v>32</v>
       </c>
       <c r="C2" s="1">
-        <f>(B2*1000)/(2*8)</f>
+        <f t="shared" ref="C2:C4" si="0">(B2*1000)/(2*8)</f>
         <v>2000</v>
       </c>
       <c r="D2" s="1">
-        <f>(B2*1000)/4</f>
+        <f t="shared" ref="D2:D4" si="1">(B2*1000)/4</f>
         <v>8000</v>
       </c>
     </row>
@@ -637,11 +637,11 @@
         <v>256</v>
       </c>
       <c r="C3" s="1">
-        <f>(B3*1000)/(2*8)</f>
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="D3" s="1">
-        <f>(B3*1000)/4</f>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
     </row>
@@ -653,11 +653,11 @@
         <v>25000</v>
       </c>
       <c r="C4" s="1">
-        <f>(B4*1000)/(2*8)</f>
+        <f t="shared" si="0"/>
         <v>1562500</v>
       </c>
       <c r="D4" s="1">
-        <f>(B4*1000)/4</f>
+        <f t="shared" si="1"/>
         <v>6250000</v>
       </c>
     </row>
